--- a/صيدليات دكتور مصطفي طلعت_2026-01-11_17-59.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-11_17-59.xlsx
@@ -183,6 +183,9 @@
   </si>
   <si>
     <t>5:0</t>
+  </si>
+  <si>
+    <t>OTRIVIN BABY SALINE NASAL DROPS 15 ML</t>
   </si>
   <si>
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
@@ -1763,17 +1766,17 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c t="s" r="H39" s="8">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M39" s="9"/>
       <c t="s" r="N39" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" ht="25.5" customHeight="1">
@@ -1781,7 +1784,7 @@
         <v>37</v>
       </c>
       <c t="s" r="B40" s="7">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
@@ -1789,13 +1792,13 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="M40" s="9"/>
       <c t="s" r="N40" s="7">
@@ -1807,7 +1810,7 @@
         <v>38</v>
       </c>
       <c t="s" r="B41" s="7">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -1815,17 +1818,17 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="M41" s="9"/>
       <c t="s" r="N41" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -1841,17 +1844,17 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="M42" s="9"/>
       <c t="s" r="N42" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" ht="25.5" customHeight="1">
@@ -1867,13 +1870,13 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="M43" s="9"/>
       <c t="s" r="N43" s="7">
@@ -1885,7 +1888,7 @@
         <v>41</v>
       </c>
       <c t="s" r="B44" s="7">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
@@ -1893,13 +1896,13 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="M44" s="9"/>
       <c t="s" r="N44" s="7">
@@ -1919,17 +1922,17 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c t="s" r="H45" s="8">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="M45" s="9"/>
       <c t="s" r="N45" s="7">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="24.75" customHeight="1">
@@ -1937,7 +1940,7 @@
         <v>43</v>
       </c>
       <c t="s" r="B46" s="7">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
@@ -1945,17 +1948,17 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c t="s" r="H46" s="8">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="M46" s="9"/>
       <c t="s" r="N46" s="7">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -1971,17 +1974,17 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c t="s" r="H47" s="8">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>96</v>
+        <v>37</v>
       </c>
       <c r="M47" s="9"/>
       <c t="s" r="N47" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="25.5" customHeight="1">
@@ -1989,7 +1992,7 @@
         <v>45</v>
       </c>
       <c t="s" r="B48" s="7">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
@@ -1997,13 +2000,13 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>45</v>
+        <v>96</v>
       </c>
       <c r="M48" s="9"/>
       <c t="s" r="N48" s="7">
@@ -2023,13 +2026,13 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c t="s" r="H49" s="8">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="M49" s="9"/>
       <c t="s" r="N49" s="7">
@@ -2049,17 +2052,17 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c t="s" r="H50" s="8">
-        <v>75</v>
+        <v>8</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="M50" s="9"/>
       <c t="s" r="N50" s="7">
-        <v>71</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51" ht="24.75" customHeight="1">
@@ -2067,7 +2070,7 @@
         <v>48</v>
       </c>
       <c t="s" r="B51" s="7">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
@@ -2075,17 +2078,17 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c t="s" r="H51" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="9">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="M51" s="9"/>
       <c t="s" r="N51" s="7">
-        <v>9</v>
+        <v>72</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2093,7 +2096,7 @@
         <v>49</v>
       </c>
       <c t="s" r="B52" s="7">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
@@ -2101,13 +2104,13 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c t="s" r="H52" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="9">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="M52" s="9"/>
       <c t="s" r="N52" s="7">
@@ -2127,13 +2130,13 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c t="s" r="H53" s="8">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="9">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="M53" s="9"/>
       <c t="s" r="N53" s="7">
@@ -2145,7 +2148,7 @@
         <v>51</v>
       </c>
       <c t="s" r="B54" s="7">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
@@ -2153,13 +2156,13 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c t="s" r="H54" s="8">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="9">
-        <v>44.549999999999997</v>
+        <v>15</v>
       </c>
       <c r="M54" s="9"/>
       <c t="s" r="N54" s="7">
@@ -2179,13 +2182,13 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c t="s" r="H55" s="8">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="9">
-        <v>35</v>
+        <v>44.549999999999997</v>
       </c>
       <c r="M55" s="9"/>
       <c t="s" r="N55" s="7">
@@ -2205,51 +2208,77 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c t="s" r="H56" s="8">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="9">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="M56" s="9"/>
       <c t="s" r="N56" s="7">
         <v>9</v>
       </c>
     </row>
-    <row r="57" ht="26.25" customHeight="1">
-      <c r="K57" s="10">
-        <v>3801.8800000000001</v>
-      </c>
-      <c r="L57" s="10"/>
-      <c r="M57" s="10"/>
-      <c r="N57" s="10"/>
-    </row>
-    <row r="58" ht="16.5" customHeight="1">
-      <c t="s" r="A58" s="11">
+    <row r="57" ht="25.5" customHeight="1">
+      <c r="A57" s="6">
+        <v>54</v>
+      </c>
+      <c t="s" r="B57" s="7">
         <v>84</v>
       </c>
-      <c r="B58" s="11"/>
-      <c r="C58" s="11"/>
-      <c r="D58" s="11"/>
-      <c r="E58" s="11"/>
-      <c t="s" r="F58" s="12">
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+      <c t="s" r="H57" s="8">
+        <v>66</v>
+      </c>
+      <c r="I57" s="8"/>
+      <c r="J57" s="8"/>
+      <c r="K57" s="8"/>
+      <c r="L57" s="9">
+        <v>30</v>
+      </c>
+      <c r="M57" s="9"/>
+      <c t="s" r="N57" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" ht="25.5" customHeight="1">
+      <c r="K58" s="10">
+        <v>3821.8800000000001</v>
+      </c>
+      <c r="L58" s="10"/>
+      <c r="M58" s="10"/>
+      <c r="N58" s="10"/>
+    </row>
+    <row r="59" ht="17.25" customHeight="1">
+      <c t="s" r="A59" s="11">
         <v>85</v>
       </c>
-      <c r="G58" s="12"/>
-      <c r="H58" s="13"/>
-      <c t="s" r="I58" s="14">
+      <c r="B59" s="11"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="11"/>
+      <c t="s" r="F59" s="12">
         <v>86</v>
       </c>
-      <c r="J58" s="14"/>
-      <c r="K58" s="14"/>
-      <c r="L58" s="14"/>
-      <c r="M58" s="14"/>
-      <c r="N58" s="14"/>
+      <c r="G59" s="12"/>
+      <c r="H59" s="13"/>
+      <c t="s" r="I59" s="14">
+        <v>87</v>
+      </c>
+      <c r="J59" s="14"/>
+      <c r="K59" s="14"/>
+      <c r="L59" s="14"/>
+      <c r="M59" s="14"/>
+      <c r="N59" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="170">
+  <mergeCells count="173">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -2416,10 +2445,13 @@
     <mergeCell ref="B56:G56"/>
     <mergeCell ref="H56:K56"/>
     <mergeCell ref="L56:M56"/>
-    <mergeCell ref="K57:N57"/>
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="F58:G58"/>
-    <mergeCell ref="I58:N58"/>
+    <mergeCell ref="B57:G57"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="K58:N58"/>
+    <mergeCell ref="A59:E59"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="I59:N59"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
